--- a/facerecog/attendance_sheets/2020_6.xlsx
+++ b/facerecog/attendance_sheets/2020_6.xlsx
@@ -469,6 +469,11 @@
           <t>victory</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +501,11 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>arjun</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
